--- a/simfin/revenue/historical_accounts.xlsx
+++ b/simfin/revenue/historical_accounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loulou/repos/simfin/simfin/revenue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270CB6D-7802-7A4B-A97F-62293F314475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B086E-5E06-3B4A-A3C2-1662A26F5714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>account</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>personal_credits_family</t>
+  </si>
+  <si>
+    <t>additional_accounts</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,6 +1179,65 @@
         <v>8193</v>
       </c>
     </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/simfin/revenue/historical_accounts.xlsx
+++ b/simfin/revenue/historical_accounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/revenue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B086E-5E06-3B4A-A3C2-1662A26F5714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7170B7-97F9-B740-8AA4-9FA799D43D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,54 +1189,6 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simfin/revenue/historical_accounts.xlsx
+++ b/simfin/revenue/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7170B7-97F9-B740-8AA4-9FA799D43D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71CD82-BC88-034F-8A98-74F83AC88E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="7420" windowWidth="37860" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -116,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,9 +144,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +469,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,8 +593,8 @@
       <c r="R2" s="1">
         <v>28841</v>
       </c>
-      <c r="S2" s="1">
-        <v>30036.808895723665</v>
+      <c r="S2" s="2">
+        <v>29897</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -599,53 +607,53 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>331</v>
-      </c>
-      <c r="E3">
-        <v>604</v>
-      </c>
-      <c r="F3">
-        <v>667</v>
-      </c>
-      <c r="G3">
-        <v>767</v>
-      </c>
-      <c r="H3">
-        <v>978</v>
-      </c>
-      <c r="I3">
-        <v>864</v>
-      </c>
-      <c r="J3">
-        <v>853</v>
-      </c>
-      <c r="K3">
-        <v>863</v>
-      </c>
-      <c r="L3">
-        <v>931</v>
-      </c>
-      <c r="M3">
-        <v>1249</v>
-      </c>
-      <c r="N3">
-        <v>1161</v>
-      </c>
-      <c r="O3">
-        <v>1086</v>
-      </c>
-      <c r="P3">
-        <v>1113</v>
-      </c>
-      <c r="Q3">
-        <v>1370</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1451</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1511.1615307269176</v>
+      <c r="D3" s="3">
+        <v>254</v>
+      </c>
+      <c r="E3" s="3">
+        <v>249</v>
+      </c>
+      <c r="F3" s="3">
+        <v>316</v>
+      </c>
+      <c r="G3" s="3">
+        <v>402</v>
+      </c>
+      <c r="H3" s="3">
+        <v>601</v>
+      </c>
+      <c r="I3" s="3">
+        <v>484</v>
+      </c>
+      <c r="J3" s="3">
+        <v>488</v>
+      </c>
+      <c r="K3" s="3">
+        <v>509</v>
+      </c>
+      <c r="L3" s="3">
+        <v>575</v>
+      </c>
+      <c r="M3" s="3">
+        <v>891</v>
+      </c>
+      <c r="N3" s="3">
+        <v>857</v>
+      </c>
+      <c r="O3" s="3">
+        <v>742</v>
+      </c>
+      <c r="P3" s="3">
+        <v>778</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1025</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1092</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -658,53 +666,53 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>2207</v>
-      </c>
-      <c r="E4">
-        <v>2273</v>
-      </c>
-      <c r="F4">
-        <v>2295</v>
-      </c>
-      <c r="G4">
-        <v>2308</v>
-      </c>
-      <c r="H4">
-        <v>2401</v>
-      </c>
-      <c r="I4">
-        <v>2471</v>
-      </c>
-      <c r="J4">
-        <v>2570</v>
-      </c>
-      <c r="K4">
-        <v>2701</v>
-      </c>
-      <c r="L4">
-        <v>2799</v>
-      </c>
-      <c r="M4">
-        <v>2838</v>
-      </c>
-      <c r="N4">
-        <v>2866</v>
-      </c>
-      <c r="O4">
-        <v>2855</v>
-      </c>
-      <c r="P4">
-        <v>3066</v>
-      </c>
-      <c r="Q4">
-        <v>3197</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3522</v>
-      </c>
-      <c r="S4" s="1">
-        <v>3668.0295735494183</v>
+      <c r="D4" s="3">
+        <v>2284</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2628</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2646</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2673</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2778</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2851</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2935</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3055</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3155</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3196</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3170</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3199</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3401</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3542</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3881</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4005</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -762,8 +770,8 @@
       <c r="R5" s="1">
         <v>6605</v>
       </c>
-      <c r="S5" s="1">
-        <v>6127.6780527477631</v>
+      <c r="S5" s="2">
+        <v>6702</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -821,8 +829,8 @@
       <c r="R6" s="1">
         <v>2002</v>
       </c>
-      <c r="S6" s="1">
-        <v>1857.3219472522364</v>
+      <c r="S6" s="2">
+        <v>2249</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -880,8 +888,8 @@
       <c r="R7" s="1">
         <v>6522</v>
       </c>
-      <c r="S7" s="1">
-        <v>6455</v>
+      <c r="S7" s="2">
+        <v>6398</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -939,8 +947,8 @@
       <c r="R8" s="1">
         <v>1539</v>
       </c>
-      <c r="S8" s="1">
-        <v>1166</v>
+      <c r="S8" s="2">
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -998,8 +1006,8 @@
       <c r="R9" s="1">
         <v>21348</v>
       </c>
-      <c r="S9" s="1">
-        <v>20322</v>
+      <c r="S9" s="2">
+        <v>21377</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1057,8 +1065,8 @@
       <c r="R10" s="1">
         <v>4535</v>
       </c>
-      <c r="S10" s="1">
-        <v>4378</v>
+      <c r="S10" s="2">
+        <v>4613</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1116,8 +1124,8 @@
       <c r="R11" s="1">
         <v>4419</v>
       </c>
-      <c r="S11" s="1">
-        <v>3988</v>
+      <c r="S11" s="2">
+        <v>4491</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1130,53 +1138,53 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>3427</v>
       </c>
-      <c r="E12">
-        <v>2989</v>
-      </c>
-      <c r="F12">
-        <v>3937</v>
-      </c>
-      <c r="G12">
-        <v>3489</v>
-      </c>
-      <c r="H12">
-        <v>6667</v>
-      </c>
-      <c r="I12">
-        <v>6872</v>
-      </c>
-      <c r="J12">
-        <v>7025</v>
-      </c>
-      <c r="K12">
-        <v>8567</v>
-      </c>
-      <c r="L12">
-        <v>8508</v>
-      </c>
-      <c r="M12">
-        <v>8353</v>
-      </c>
-      <c r="N12">
-        <v>8236</v>
-      </c>
-      <c r="O12">
-        <v>8812</v>
-      </c>
-      <c r="P12">
-        <v>8517</v>
-      </c>
-      <c r="Q12">
-        <v>9465</v>
-      </c>
-      <c r="R12">
-        <v>8820</v>
-      </c>
-      <c r="S12">
-        <v>8193</v>
+      <c r="E12" s="3">
+        <v>3570</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4350</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4126</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7332</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7538</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7716</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9296</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9290</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9317</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9391</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10391</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10398</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>11548</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10962</v>
+      </c>
+      <c r="S12" s="3">
+        <v>9884</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1189,6 +1197,8 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simfin/revenue/historical_accounts.xlsx
+++ b/simfin/revenue/historical_accounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/revenue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71CD82-BC88-034F-8A98-74F83AC88E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04230177-97EB-2B4D-B1A2-104B246EA1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="7420" windowWidth="37860" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="5080" windowWidth="37860" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>account</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>additional_accounts</t>
+  </si>
+  <si>
+    <t>0.5318</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.4509</t>
+  </si>
+  <si>
+    <t>0.3091</t>
+  </si>
+  <si>
+    <t>1.4247</t>
+  </si>
+  <si>
+    <t>-0.1372</t>
   </si>
 </sst>
 </file>
@@ -144,11 +162,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +488,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>17204</v>
@@ -720,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>4787</v>
@@ -956,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9">
         <v>11871</v>
